--- a/measurements/16112020 Aries mk2 tuning solutions.xlsx
+++ b/measurements/16112020 Aries mk2 tuning solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d529807eb1393ed/documents/amateur radio/SDR/Aries-ATU/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1624" documentId="8_{A347F93E-DBB8-40BD-9C54-B150BF698FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F995A2BF-9A21-48D7-BE71-39AA4EC77E2A}"/>
+  <xr:revisionPtr revIDLastSave="1627" documentId="8_{A347F93E-DBB8-40BD-9C54-B150BF698FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94CD228D-8B10-4873-90F4-715112F6F3AA}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="2115" windowWidth="17415" windowHeight="10695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1755" windowWidth="19125" windowHeight="12075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning Solutions 5uH largest" sheetId="2" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,13 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,8 +518,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C68" sqref="C68:D79"/>
     </sheetView>
   </sheetViews>
@@ -830,18 +833,18 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1129,48 +1132,48 @@
         <v>47</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1185,18 +1188,18 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="40" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1484,47 +1487,47 @@
         <v>47</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,18 +1547,18 @@
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="40" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -1843,47 +1846,47 @@
         <v>47</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -1927,18 +1930,18 @@
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="40" t="s">
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
@@ -2226,47 +2229,47 @@
         <v>47</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
       <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
       <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2298,18 +2301,18 @@
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="40" t="s">
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="42"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
@@ -2597,47 +2600,47 @@
         <v>47</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
       <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,18 +2673,18 @@
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="40" t="s">
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="42"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="39"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -2969,47 +2972,47 @@
         <v>47</v>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
       <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
       <c r="I126" s="7"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="39" t="s">
+      <c r="C127" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
       <c r="I127" s="7"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3042,18 +3045,18 @@
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="40" t="s">
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="42"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="39"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
@@ -3341,47 +3344,73 @@
         <v>47</v>
       </c>
       <c r="B146" s="7"/>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="37" t="s">
+      <c r="C147" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="C127:H127"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
@@ -3398,32 +3427,6 @@
     <mergeCell ref="C124:H124"/>
     <mergeCell ref="C125:H125"/>
     <mergeCell ref="C126:H126"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C146:H146"/>
-    <mergeCell ref="C147:H147"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="C103:H103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3439,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF743EA4-9EFD-4CA4-B858-49DA10FB64E1}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -4704,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34318631-452D-4DC3-B5F0-0DF391BB612B}">
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,7 +4719,9 @@
     <col min="6" max="6" width="5.7109375" style="28" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="28"/>
     <col min="9" max="9" width="9.140625" style="33"/>
-    <col min="10" max="16384" width="9.140625" style="28"/>
+    <col min="10" max="10" width="9.140625" style="28"/>
+    <col min="11" max="11" width="6.7109375" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4728,19 +4733,19 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -5163,48 +5168,48 @@
         <v>47</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="35"/>
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -5219,19 +5224,19 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="40" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -5678,50 +5683,50 @@
         <v>47</v>
       </c>
       <c r="B37" s="29"/>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="35"/>
       <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="34"/>
       <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="35"/>
       <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5741,19 +5746,19 @@
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="40" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -5883,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -5914,7 +5919,7 @@
       <c r="J49" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6078,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
@@ -6109,7 +6114,7 @@
       <c r="J55" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6182,50 +6187,50 @@
         <v>47</v>
       </c>
       <c r="B58" s="29"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="35"/>
       <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="34"/>
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="35"/>
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -6272,19 +6277,19 @@
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="40" t="s">
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="42"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="39"/>
     </row>
     <row r="67" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
@@ -6731,50 +6736,50 @@
         <v>47</v>
       </c>
       <c r="B80" s="29"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="35"/>
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
       <c r="I81" s="34"/>
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
       <c r="I82" s="35"/>
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
       <c r="J83" s="29"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6808,19 +6813,19 @@
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="40" t="s">
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="42"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
@@ -7243,50 +7248,50 @@
         <v>47</v>
       </c>
       <c r="B102" s="29"/>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
       <c r="I102" s="35"/>
       <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
       <c r="I103" s="34"/>
       <c r="J103" s="29"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
       <c r="I104" s="35"/>
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -7321,19 +7326,19 @@
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="40" t="s">
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="42"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -7431,7 +7436,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7467,7 @@
       <c r="J114" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K114" s="28" t="s">
+      <c r="K114" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7759,50 +7764,50 @@
         <v>47</v>
       </c>
       <c r="B124" s="29"/>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="35"/>
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
       <c r="I125" s="34"/>
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
       <c r="I126" s="35"/>
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="39" t="s">
+      <c r="C127" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -7837,19 +7842,19 @@
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="40" t="s">
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="42"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
@@ -8272,47 +8277,47 @@
         <v>47</v>
       </c>
       <c r="B146" s="29"/>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
       <c r="I146" s="35"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C147" s="37" t="s">
+      <c r="C147" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
       <c r="I147" s="34"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
       <c r="I148" s="35"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -8341,6 +8346,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
     <mergeCell ref="C149:H149"/>
     <mergeCell ref="B110:E110"/>
     <mergeCell ref="F110:J110"/>
@@ -8353,38 +8388,8 @@
     <mergeCell ref="C146:H146"/>
     <mergeCell ref="C147:H147"/>
     <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="42" max="16383" man="1"/>
